--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.5470220269247</v>
+        <v>517.1920390135805</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.5157211130893</v>
+        <v>707.6449646808068</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.2075540454782</v>
+        <v>640.1083224376156</v>
       </c>
       <c r="AD2" t="n">
-        <v>423547.0220269246</v>
+        <v>517192.0390135805</v>
       </c>
       <c r="AE2" t="n">
-        <v>579515.7211130892</v>
+        <v>707644.9646808067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.195271962191393e-06</v>
+        <v>2.020666556938574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>524207.5540454782</v>
+        <v>640108.3224376156</v>
       </c>
     </row>
     <row r="3">
@@ -2308,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.3014226095165</v>
+        <v>383.0322198409901</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.5680959469484</v>
+        <v>524.0815813753688</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.047912754836</v>
+        <v>474.063970802022</v>
       </c>
       <c r="AD3" t="n">
-        <v>310301.4226095165</v>
+        <v>383032.2198409901</v>
       </c>
       <c r="AE3" t="n">
-        <v>424568.0959469484</v>
+        <v>524081.5813753689</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.521142760975841e-06</v>
+        <v>2.571567310754763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.31597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>384047.912754836</v>
+        <v>474063.970802022</v>
       </c>
     </row>
     <row r="4">
@@ -2414,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.9376238129109</v>
+        <v>336.3392776943753</v>
       </c>
       <c r="AB4" t="n">
-        <v>374.8135421758523</v>
+        <v>460.1942379831465</v>
       </c>
       <c r="AC4" t="n">
-        <v>339.0418637646986</v>
+        <v>416.2739457967038</v>
       </c>
       <c r="AD4" t="n">
-        <v>273937.6238129109</v>
+        <v>336339.2776943753</v>
       </c>
       <c r="AE4" t="n">
-        <v>374813.5421758523</v>
+        <v>460194.2379831465</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.652438745730695e-06</v>
+        <v>2.793529687390825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>339041.8637646986</v>
+        <v>416273.9457967038</v>
       </c>
     </row>
     <row r="5">
@@ -2520,28 +2520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.9204717450892</v>
+        <v>311.4073769725773</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.5839710376427</v>
+        <v>426.0813114977511</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.0791148545171</v>
+        <v>385.4167091372815</v>
       </c>
       <c r="AD5" t="n">
-        <v>248920.4717450892</v>
+        <v>311407.3769725773</v>
       </c>
       <c r="AE5" t="n">
-        <v>340583.9710376427</v>
+        <v>426081.3114977511</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.713266716623344e-06</v>
+        <v>2.896362390237684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>308079.1148545171</v>
+        <v>385416.7091372815</v>
       </c>
     </row>
     <row r="6">
@@ -2626,28 +2626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.4711052851316</v>
+        <v>308.9580105126196</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.2326397887085</v>
+        <v>422.7299802488151</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.0476299563572</v>
+        <v>382.3852242391211</v>
       </c>
       <c r="AD6" t="n">
-        <v>246471.1052851316</v>
+        <v>308958.0105126196</v>
       </c>
       <c r="AE6" t="n">
-        <v>337232.6397887085</v>
+        <v>422729.9802488151</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.726221253785823e-06</v>
+        <v>2.918262678065776e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.73611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>305047.6299563572</v>
+        <v>382385.2242391211</v>
       </c>
     </row>
   </sheetData>
@@ -2923,28 +2923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.1230453981905</v>
+        <v>418.7571098137625</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.3173088186476</v>
+        <v>572.9619519070279</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.8582533805367</v>
+        <v>518.2792673741706</v>
       </c>
       <c r="AD2" t="n">
-        <v>348123.0453981905</v>
+        <v>418757.1098137625</v>
       </c>
       <c r="AE2" t="n">
-        <v>476317.3088186476</v>
+        <v>572961.951907028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.384509945591697e-06</v>
+        <v>2.39768187354661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.13888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>430858.2533805367</v>
+        <v>518279.2673741705</v>
       </c>
     </row>
     <row r="3">
@@ -3029,28 +3029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.1493819539737</v>
+        <v>321.607537671114</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.3161054870415</v>
+        <v>440.0376213648196</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.2143578756612</v>
+        <v>398.0410483784409</v>
       </c>
       <c r="AD3" t="n">
-        <v>261149.3819539737</v>
+        <v>321607.537671114</v>
       </c>
       <c r="AE3" t="n">
-        <v>357316.1054870415</v>
+        <v>440037.6213648196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683781218842656e-06</v>
+        <v>2.915957173360636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>323214.3578756612</v>
+        <v>398041.0483784409</v>
       </c>
     </row>
     <row r="4">
@@ -3135,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.3401196750003</v>
+        <v>291.8835267381639</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.5297577449641</v>
+        <v>399.3679182755441</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.3206019181837</v>
+        <v>361.2528046717191</v>
       </c>
       <c r="AD4" t="n">
-        <v>231340.1196750003</v>
+        <v>291883.5267381639</v>
       </c>
       <c r="AE4" t="n">
-        <v>316529.7577449641</v>
+        <v>399367.9182755441</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.786307104450496e-06</v>
+        <v>3.093510580090535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.73611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>286320.6019181837</v>
+        <v>361252.8046717191</v>
       </c>
     </row>
     <row r="5">
@@ -3241,28 +3241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.6042294560476</v>
+        <v>291.1476365192112</v>
       </c>
       <c r="AB5" t="n">
-        <v>315.5228802822085</v>
+        <v>398.3610408127878</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.4098194273117</v>
+        <v>360.3420221808469</v>
       </c>
       <c r="AD5" t="n">
-        <v>230604.2294560476</v>
+        <v>291147.6365192112</v>
       </c>
       <c r="AE5" t="n">
-        <v>315522.8802822084</v>
+        <v>398361.0408127878</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.792802503232529e-06</v>
+        <v>3.104759253291275e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>285409.8194273117</v>
+        <v>360342.0221808469</v>
       </c>
     </row>
   </sheetData>
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.34619049467</v>
+        <v>255.9531328249409</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.490740601691</v>
+        <v>350.2063681862007</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.1982909724292</v>
+        <v>316.7831639243391</v>
       </c>
       <c r="AD2" t="n">
-        <v>201346.19049467</v>
+        <v>255953.1328249409</v>
       </c>
       <c r="AE2" t="n">
-        <v>275490.740601691</v>
+        <v>350206.3681862007</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.943735549017937e-06</v>
+        <v>3.677965930649602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>249198.2909724292</v>
+        <v>316783.1639243391</v>
       </c>
     </row>
     <row r="3">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.8852932687643</v>
+        <v>255.5221708486278</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.5459236318853</v>
+        <v>349.616706997509</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.4889091660529</v>
+        <v>316.2497791719013</v>
       </c>
       <c r="AD3" t="n">
-        <v>191885.2932687643</v>
+        <v>255522.1708486278</v>
       </c>
       <c r="AE3" t="n">
-        <v>262545.9236318853</v>
+        <v>349616.706997509</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.952977319094361e-06</v>
+        <v>3.695453348368105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>237488.9091660529</v>
+        <v>316249.7791719012</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.4213652461733</v>
+        <v>302.8124398444118</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.4821421041731</v>
+        <v>414.3213393371303</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.6094604718847</v>
+        <v>374.7790922144458</v>
       </c>
       <c r="AD2" t="n">
-        <v>236421.3652461733</v>
+        <v>302812.4398444118</v>
       </c>
       <c r="AE2" t="n">
-        <v>323482.1421041731</v>
+        <v>414321.3393371303</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.745062865960837e-06</v>
+        <v>3.179125558136515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>292609.4604718848</v>
+        <v>374779.0922144458</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.7881901435847</v>
+        <v>261.767974817422</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.2002363716412</v>
+        <v>358.1624915332026</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.4583190759157</v>
+        <v>323.9799660254869</v>
       </c>
       <c r="AD3" t="n">
-        <v>204788.1901435847</v>
+        <v>261767.974817422</v>
       </c>
       <c r="AE3" t="n">
-        <v>280200.2363716412</v>
+        <v>358162.4915332026</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.909439023955405e-06</v>
+        <v>3.478583219646656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>253458.3190759157</v>
+        <v>323979.9660254869</v>
       </c>
     </row>
   </sheetData>
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.8983964635021</v>
+        <v>242.6290449198848</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.8273637672262</v>
+        <v>331.9757632972398</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.0298048393533</v>
+        <v>300.2924623791601</v>
       </c>
       <c r="AD2" t="n">
-        <v>189898.3964635021</v>
+        <v>242629.0449198848</v>
       </c>
       <c r="AE2" t="n">
-        <v>259827.3637672262</v>
+        <v>331975.7632972398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.964836611185886e-06</v>
+        <v>3.850446686649318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>235029.8048393533</v>
+        <v>300292.4623791601</v>
       </c>
     </row>
   </sheetData>
@@ -4641,28 +4641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.1487342493879</v>
+        <v>446.5543861695166</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.6126074252365</v>
+        <v>610.9954117462535</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.9302813832697</v>
+        <v>552.6828671866367</v>
       </c>
       <c r="AD2" t="n">
-        <v>365148.7342493879</v>
+        <v>446554.3861695166</v>
       </c>
       <c r="AE2" t="n">
-        <v>499612.6074252365</v>
+        <v>610995.4117462535</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.328114394187123e-06</v>
+        <v>2.284995856329373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.64236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>451930.2813832697</v>
+        <v>552682.8671866367</v>
       </c>
     </row>
     <row r="3">
@@ -4747,28 +4747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.1618744137771</v>
+        <v>342.3064789893181</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.0156393905368</v>
+        <v>468.358826049229</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.6064274908235</v>
+        <v>423.6593170368307</v>
       </c>
       <c r="AD3" t="n">
-        <v>271161.8744137771</v>
+        <v>342306.4789893181</v>
       </c>
       <c r="AE3" t="n">
-        <v>371015.6393905368</v>
+        <v>468358.826049229</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.637260352971711e-06</v>
+        <v>2.816875668727693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.69097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>335606.4274908236</v>
+        <v>423659.3170368307</v>
       </c>
     </row>
     <row r="4">
@@ -4853,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.9895266493289</v>
+        <v>300.0437655894283</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.9960138352537</v>
+        <v>410.5331170761744</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.7879732167021</v>
+        <v>371.3524125692721</v>
       </c>
       <c r="AD4" t="n">
-        <v>238989.5266493289</v>
+        <v>300043.7655894284</v>
       </c>
       <c r="AE4" t="n">
-        <v>326996.0138352537</v>
+        <v>410533.1170761744</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.754371609438294e-06</v>
+        <v>3.018363384640487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>295787.9732167021</v>
+        <v>371352.4125692721</v>
       </c>
     </row>
     <row r="5">
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>234.1081184146533</v>
+        <v>295.1623573547527</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.3170557360414</v>
+        <v>403.8541589769587</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.7464455044999</v>
+        <v>365.310884857069</v>
       </c>
       <c r="AD5" t="n">
-        <v>234108.1184146533</v>
+        <v>295162.3573547527</v>
       </c>
       <c r="AE5" t="n">
-        <v>320317.0557360414</v>
+        <v>403854.1589769587</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.780478757130374e-06</v>
+        <v>3.063280241620637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>289746.4455044999</v>
+        <v>365310.884857069</v>
       </c>
     </row>
   </sheetData>
@@ -5256,28 +5256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.7176476605812</v>
+        <v>244.9546351864577</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.738834696567</v>
+        <v>335.1577384977648</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.6177950343825</v>
+        <v>303.1707543324783</v>
       </c>
       <c r="AD2" t="n">
-        <v>184717.6476605812</v>
+        <v>244954.6351864577</v>
       </c>
       <c r="AE2" t="n">
-        <v>252738.834696567</v>
+        <v>335157.7384977648</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944739158832978e-06</v>
+        <v>3.898541534546808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>228617.7950343826</v>
+        <v>303170.7543324783</v>
       </c>
     </row>
   </sheetData>
@@ -5553,28 +5553,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.3516813715304</v>
+        <v>364.6950136169067</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.7990033971226</v>
+        <v>498.9918068391342</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.4062564062553</v>
+        <v>451.368729133806</v>
       </c>
       <c r="AD2" t="n">
-        <v>286351.6813715304</v>
+        <v>364695.0136169067</v>
       </c>
       <c r="AE2" t="n">
-        <v>391799.0033971226</v>
+        <v>498991.8068391342</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546114202765971e-06</v>
+        <v>2.738283140051789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.96701388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>354406.2564062553</v>
+        <v>451368.729133806</v>
       </c>
     </row>
     <row r="3">
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.9079233117901</v>
+        <v>281.7934337776826</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.9924546785769</v>
+        <v>385.5622079435288</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.8844028637423</v>
+        <v>348.7646919573552</v>
       </c>
       <c r="AD3" t="n">
-        <v>222907.9233117901</v>
+        <v>281793.4337776826</v>
       </c>
       <c r="AE3" t="n">
-        <v>304992.4546785769</v>
+        <v>385562.2079435288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.820024727368177e-06</v>
+        <v>3.223399032564222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.86631944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>275884.4028637423</v>
+        <v>348764.6919573552</v>
       </c>
     </row>
     <row r="4">
@@ -5765,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.1493184843088</v>
+        <v>277.0348289502012</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.4815216187916</v>
+        <v>379.0512748837401</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.9948641170289</v>
+        <v>342.8751532106408</v>
       </c>
       <c r="AD4" t="n">
-        <v>218149.3184843088</v>
+        <v>277034.8289502012</v>
       </c>
       <c r="AE4" t="n">
-        <v>298481.5216187916</v>
+        <v>379051.2748837401</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.850301667281064e-06</v>
+        <v>3.277021742935489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.67534722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>269994.8641170289</v>
+        <v>342875.1532106408</v>
       </c>
     </row>
   </sheetData>
@@ -6062,28 +6062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.7799040649301</v>
+        <v>403.7120967609636</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.0099489028801</v>
+        <v>552.3767013090568</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.7297011479569</v>
+        <v>499.6586442016892</v>
       </c>
       <c r="AD2" t="n">
-        <v>323779.90406493</v>
+        <v>403712.0967609636</v>
       </c>
       <c r="AE2" t="n">
-        <v>443009.9489028801</v>
+        <v>552376.7013090568</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435662482852923e-06</v>
+        <v>2.503670009189768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>400729.7011479568</v>
+        <v>499658.6442016892</v>
       </c>
     </row>
     <row r="3">
@@ -6168,28 +6168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.8404047263471</v>
+        <v>311.7683035432835</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.5791521609492</v>
+        <v>426.5751471547478</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.6930014986885</v>
+        <v>385.8634138122771</v>
       </c>
       <c r="AD3" t="n">
-        <v>251840.4047263471</v>
+        <v>311768.3035432835</v>
       </c>
       <c r="AE3" t="n">
-        <v>344579.1521609492</v>
+        <v>426575.1471547477</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.726782863054163e-06</v>
+        <v>3.011358531860759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.25694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>311693.0014986885</v>
+        <v>385863.4138122771</v>
       </c>
     </row>
     <row r="4">
@@ -6274,28 +6274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.9742575959744</v>
+        <v>285.9874077589311</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.1879485233169</v>
+        <v>391.3005881697466</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.6794846643542</v>
+        <v>353.9554092286499</v>
       </c>
       <c r="AD4" t="n">
-        <v>225974.2575959744</v>
+        <v>285987.407758931</v>
       </c>
       <c r="AE4" t="n">
-        <v>309187.9485233169</v>
+        <v>391300.5881697466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.814267669597096e-06</v>
+        <v>3.163924395367934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>279679.4846643542</v>
+        <v>353955.4092286499</v>
       </c>
     </row>
     <row r="5">
@@ -6380,28 +6380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.4524731149391</v>
+        <v>286.4656232778958</v>
       </c>
       <c r="AB5" t="n">
-        <v>309.8422640937438</v>
+        <v>391.9549037401738</v>
       </c>
       <c r="AC5" t="n">
-        <v>280.2713532750774</v>
+        <v>354.5472778393732</v>
       </c>
       <c r="AD5" t="n">
-        <v>226452.4731149391</v>
+        <v>286465.6232778957</v>
       </c>
       <c r="AE5" t="n">
-        <v>309842.2640937438</v>
+        <v>391954.9037401738</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.815364581353695e-06</v>
+        <v>3.16583731368998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.65798611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>280271.3532750774</v>
+        <v>354547.2778393732</v>
       </c>
     </row>
   </sheetData>
@@ -6677,28 +6677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.7786201792974</v>
+        <v>500.73010723937</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.9406980523729</v>
+        <v>685.1210233781583</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.6916209049415</v>
+        <v>619.7340344803416</v>
       </c>
       <c r="AD2" t="n">
-        <v>407778.6201792974</v>
+        <v>500730.10723937</v>
       </c>
       <c r="AE2" t="n">
-        <v>557940.6980523729</v>
+        <v>685121.0233781582</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235084147348114e-06</v>
+        <v>2.099561193587038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>504691.6209049415</v>
+        <v>619734.0344803416</v>
       </c>
     </row>
     <row r="3">
@@ -6783,28 +6783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.5506539679816</v>
+        <v>362.5752954196287</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.2266641180478</v>
+        <v>496.0915148862517</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.9797684548686</v>
+        <v>448.7452369743211</v>
       </c>
       <c r="AD3" t="n">
-        <v>300550.6539679816</v>
+        <v>362575.2954196287</v>
       </c>
       <c r="AE3" t="n">
-        <v>411226.6641180478</v>
+        <v>496091.5148862517</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.559136685951107e-06</v>
+        <v>2.650429032183339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>371979.7684548686</v>
+        <v>448745.2369743211</v>
       </c>
     </row>
     <row r="4">
@@ -6889,28 +6889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.563970588948</v>
+        <v>328.5032711860235</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.7245845322049</v>
+        <v>449.4726681782109</v>
       </c>
       <c r="AC4" t="n">
-        <v>329.9157820786199</v>
+        <v>406.5756275661336</v>
       </c>
       <c r="AD4" t="n">
-        <v>266563.970588948</v>
+        <v>328503.2711860235</v>
       </c>
       <c r="AE4" t="n">
-        <v>364724.5845322049</v>
+        <v>449472.6681782109</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.679906429699686e-06</v>
+        <v>2.855729592374643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>329915.7820786199</v>
+        <v>406575.6275661336</v>
       </c>
     </row>
     <row r="5">
@@ -6995,28 +6995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.0425356365879</v>
+        <v>304.0670875796872</v>
       </c>
       <c r="AB5" t="n">
-        <v>331.1732754208701</v>
+        <v>416.0380037196856</v>
       </c>
       <c r="AC5" t="n">
-        <v>299.5665628194121</v>
+        <v>376.3319205576836</v>
       </c>
       <c r="AD5" t="n">
-        <v>242042.5356365879</v>
+        <v>304067.0875796871</v>
       </c>
       <c r="AE5" t="n">
-        <v>331173.2754208702</v>
+        <v>416038.0037196856</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.742938212965308e-06</v>
+        <v>2.962879446407859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>299566.5628194121</v>
+        <v>376331.9205576836</v>
       </c>
     </row>
     <row r="6">
@@ -7101,28 +7101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>242.7031110223957</v>
+        <v>304.7276629654949</v>
       </c>
       <c r="AB6" t="n">
-        <v>332.0771038062611</v>
+        <v>416.941832105077</v>
       </c>
       <c r="AC6" t="n">
-        <v>300.3841310922327</v>
+        <v>377.1494888305044</v>
       </c>
       <c r="AD6" t="n">
-        <v>242703.1110223957</v>
+        <v>304727.6629654949</v>
       </c>
       <c r="AE6" t="n">
-        <v>332077.1038062611</v>
+        <v>416941.832105077</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.742726460054002e-06</v>
+        <v>2.962519480492854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>300384.1310922327</v>
+        <v>377149.4888305044</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.155654023885</v>
+        <v>316.8046216993601</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.5881989760256</v>
+        <v>433.4660598425676</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.7467989334158</v>
+        <v>392.0966674646281</v>
       </c>
       <c r="AD2" t="n">
-        <v>259155.654023885</v>
+        <v>316804.6216993601</v>
       </c>
       <c r="AE2" t="n">
-        <v>354588.1989760256</v>
+        <v>433466.0598425677</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674835016131587e-06</v>
+        <v>3.02012386694711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>320746.7989334158</v>
+        <v>392096.6674646281</v>
       </c>
     </row>
     <row r="3">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.1009527980662</v>
+        <v>266.7498309649927</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.1011485011597</v>
+        <v>364.9788868982903</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.7960564337771</v>
+        <v>330.1458141838017</v>
       </c>
       <c r="AD3" t="n">
-        <v>209100.9527980662</v>
+        <v>266749.8309649927</v>
       </c>
       <c r="AE3" t="n">
-        <v>286101.1485011597</v>
+        <v>364978.8868982904</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.890530572700821e-06</v>
+        <v>3.409073997625537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.68402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>258796.0564337771</v>
+        <v>330145.8141838018</v>
       </c>
     </row>
     <row r="4">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.7247310582951</v>
+        <v>267.3736092252216</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.9546294359591</v>
+        <v>365.8323678330901</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.5680823460275</v>
+        <v>330.9178400960523</v>
       </c>
       <c r="AD4" t="n">
-        <v>209724.7310582951</v>
+        <v>267373.6092252216</v>
       </c>
       <c r="AE4" t="n">
-        <v>286954.6294359592</v>
+        <v>365832.3678330901</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.890046950376674e-06</v>
+        <v>3.408201912130742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>259568.0823460275</v>
+        <v>330917.8400960523</v>
       </c>
     </row>
   </sheetData>
@@ -7907,28 +7907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.5307115234788</v>
+        <v>265.9557831743182</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.0574074657715</v>
+        <v>363.8924356801733</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.5656127884336</v>
+        <v>329.163052345098</v>
       </c>
       <c r="AD2" t="n">
-        <v>210530.7115234788</v>
+        <v>265955.7831743183</v>
       </c>
       <c r="AE2" t="n">
-        <v>288057.4074657715</v>
+        <v>363892.4356801733</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89421730752636e-06</v>
+        <v>3.534004023037852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>260565.6127884336</v>
+        <v>329163.052345098</v>
       </c>
     </row>
     <row r="3">
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.5363765466298</v>
+        <v>252.0466995434865</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.9097409639701</v>
+        <v>344.8614138308443</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.2453727036393</v>
+        <v>311.9483245109656</v>
       </c>
       <c r="AD3" t="n">
-        <v>196536.3765466298</v>
+        <v>252046.6995434865</v>
       </c>
       <c r="AE3" t="n">
-        <v>268909.7409639701</v>
+        <v>344861.4138308443</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.938469889184813e-06</v>
+        <v>3.616565195396164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>243245.3727036393</v>
+        <v>311948.3245109656</v>
       </c>
     </row>
   </sheetData>
@@ -13627,28 +13627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.1627669429809</v>
+        <v>248.8784514759158</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.0303077048798</v>
+        <v>340.5264770515561</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.5453099169949</v>
+        <v>308.0271080137693</v>
       </c>
       <c r="AD2" t="n">
-        <v>195162.7669429809</v>
+        <v>248878.4514759158</v>
       </c>
       <c r="AE2" t="n">
-        <v>267030.3077048798</v>
+        <v>340526.4770515561</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.963649642389145e-06</v>
+        <v>3.776171081527434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.12673611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>241545.3099169949</v>
+        <v>308027.1080137693</v>
       </c>
     </row>
   </sheetData>
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.2461478987458</v>
+        <v>245.8900229488713</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.19844027198</v>
+        <v>336.4375773006942</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.7472207092661</v>
+        <v>304.3284471163215</v>
       </c>
       <c r="AD2" t="n">
-        <v>187246.1478987458</v>
+        <v>245890.0229488713</v>
       </c>
       <c r="AE2" t="n">
-        <v>256198.44027198</v>
+        <v>336437.5773006942</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89263468983528e-06</v>
+        <v>3.903747026841833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.49826388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>231747.2207092661</v>
+        <v>304328.4471163215</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.7124747189673</v>
+        <v>378.9988051642584</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.7622714605517</v>
+        <v>518.5628854729674</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.3189950264394</v>
+        <v>469.0719714910075</v>
       </c>
       <c r="AD2" t="n">
-        <v>309712.4747189673</v>
+        <v>378998.8051642585</v>
       </c>
       <c r="AE2" t="n">
-        <v>423762.2714605518</v>
+        <v>518562.8854729675</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489705225216657e-06</v>
+        <v>2.617353315148041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>383318.9950264394</v>
+        <v>469071.9714910075</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.897738550251</v>
+        <v>302.2738430253578</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.3434017762331</v>
+        <v>413.5844074080859</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.6250139577022</v>
+        <v>374.1124920344188</v>
       </c>
       <c r="AD3" t="n">
-        <v>242897.738550251</v>
+        <v>302273.8430253578</v>
       </c>
       <c r="AE3" t="n">
-        <v>332343.401776233</v>
+        <v>413584.4074080859</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.769920476801783e-06</v>
+        <v>3.109680458314708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.07465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>300625.0139577022</v>
+        <v>374112.4920344189</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.9865185350602</v>
+        <v>281.4478743561872</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.7317480135458</v>
+        <v>385.0893982980332</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.7440162734084</v>
+        <v>348.3370066008331</v>
       </c>
       <c r="AD4" t="n">
-        <v>221986.5185350602</v>
+        <v>281447.8743561872</v>
       </c>
       <c r="AE4" t="n">
-        <v>303731.7480135458</v>
+        <v>385089.3982980332</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.831886896432758e-06</v>
+        <v>3.218553013168908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>274744.0162734084</v>
+        <v>348337.0066008331</v>
       </c>
     </row>
   </sheetData>
@@ -14730,28 +14730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.7030156078008</v>
+        <v>471.6810184411047</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.2088584382581</v>
+        <v>645.3747785290215</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.3201533522429</v>
+        <v>583.7811154554016</v>
       </c>
       <c r="AD2" t="n">
-        <v>389703.0156078007</v>
+        <v>471681.0184411047</v>
       </c>
       <c r="AE2" t="n">
-        <v>533208.8584382581</v>
+        <v>645374.7785290214</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.285735263583741e-06</v>
+        <v>2.198464015310417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>482320.1533522429</v>
+        <v>583781.1154554016</v>
       </c>
     </row>
     <row r="3">
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.0849301810938</v>
+        <v>352.8049367334311</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.5928020657033</v>
+        <v>482.7232790939918</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.8878048159397</v>
+        <v>436.6528468436379</v>
       </c>
       <c r="AD3" t="n">
-        <v>281084.9301810938</v>
+        <v>352804.9367334311</v>
       </c>
       <c r="AE3" t="n">
-        <v>384592.8020657033</v>
+        <v>482723.2790939918</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.595473244271418e-06</v>
+        <v>2.728081444343792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.90798611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>347887.8048159397</v>
+        <v>436652.8468436379</v>
       </c>
     </row>
     <row r="4">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.8868368302709</v>
+        <v>318.5215025280397</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.8014620295491</v>
+        <v>435.8151719358035</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.5621646008793</v>
+        <v>394.2215835966852</v>
       </c>
       <c r="AD4" t="n">
-        <v>246886.8368302709</v>
+        <v>318521.5025280397</v>
       </c>
       <c r="AE4" t="n">
-        <v>337801.4620295491</v>
+        <v>435815.1719358035</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.72071120383409e-06</v>
+        <v>2.942224398377737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.97048611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>305562.1646008792</v>
+        <v>394221.5835966851</v>
       </c>
     </row>
     <row r="5">
@@ -15048,28 +15048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.2521082828796</v>
+        <v>299.7995489173759</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.987045493676</v>
+        <v>410.1989690513931</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.8752993975483</v>
+        <v>371.0501551629962</v>
       </c>
       <c r="AD5" t="n">
-        <v>238252.1082828796</v>
+        <v>299799.548917376</v>
       </c>
       <c r="AE5" t="n">
-        <v>325987.045493676</v>
+        <v>410198.9690513931</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.761041670069465e-06</v>
+        <v>3.011185001116458e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>294875.2993975483</v>
+        <v>371050.1551629963</v>
       </c>
     </row>
   </sheetData>
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.4336774343692</v>
+        <v>262.3665129677574</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.1374676246958</v>
+        <v>358.981437836131</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.355926854991</v>
+        <v>324.7207532426622</v>
       </c>
       <c r="AD2" t="n">
-        <v>197433.6774343692</v>
+        <v>262366.5129677574</v>
       </c>
       <c r="AE2" t="n">
-        <v>270137.4676246959</v>
+        <v>358981.437836131</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.74305784776381e-06</v>
+        <v>3.736175803576225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>244355.926854991</v>
+        <v>324720.7532426622</v>
       </c>
     </row>
   </sheetData>
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.810748139426</v>
+        <v>279.9949606438846</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.227739437568</v>
+        <v>383.1014576588314</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.0017937790687</v>
+        <v>346.5387922261446</v>
       </c>
       <c r="AD2" t="n">
-        <v>223810.748139426</v>
+        <v>279994.9606438846</v>
       </c>
       <c r="AE2" t="n">
-        <v>306227.739437568</v>
+        <v>383101.4576588314</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.815213833689791e-06</v>
+        <v>3.344409025360981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.49131944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>277001.7937790687</v>
+        <v>346538.7922261446</v>
       </c>
     </row>
     <row r="3">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.4220861515492</v>
+        <v>256.6915500020248</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.2263402708273</v>
+        <v>351.2167031445531</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.0545632345458</v>
+        <v>317.6970739322807</v>
       </c>
       <c r="AD3" t="n">
-        <v>200422.0861515492</v>
+        <v>256691.5500020248</v>
       </c>
       <c r="AE3" t="n">
-        <v>274226.3402708273</v>
+        <v>351216.7031445531</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.927825337607846e-06</v>
+        <v>3.5518881240066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.76215277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>248054.5632345458</v>
+        <v>317697.0739322807</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.2243875358322</v>
+        <v>341.2207372221488</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.8376608357896</v>
+        <v>466.8732662638417</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.1591191700734</v>
+        <v>422.3155369923646</v>
       </c>
       <c r="AD2" t="n">
-        <v>273224.3875358322</v>
+        <v>341220.7372221489</v>
       </c>
       <c r="AE2" t="n">
-        <v>373837.6608357896</v>
+        <v>466873.2662638418</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.605104918197598e-06</v>
+        <v>2.867402798562936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.60243055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>338159.1191700734</v>
+        <v>422315.5369923646</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.8254007391992</v>
+        <v>273.1079861846162</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.9335907190335</v>
+        <v>373.6783953717906</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.8809813592812</v>
+        <v>338.015053778428</v>
       </c>
       <c r="AD3" t="n">
-        <v>214825.4007391992</v>
+        <v>273107.9861846162</v>
       </c>
       <c r="AE3" t="n">
-        <v>293933.5907190336</v>
+        <v>373678.3953717906</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.860711216469038e-06</v>
+        <v>3.324024796716713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.73611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>265880.9813592812</v>
+        <v>338015.053778428</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.6760582717125</v>
+        <v>271.9586437171294</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.3610096496079</v>
+        <v>372.1058143023641</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.4584852199897</v>
+        <v>336.5925576391362</v>
       </c>
       <c r="AD4" t="n">
-        <v>213676.0582717125</v>
+        <v>271958.6437171294</v>
       </c>
       <c r="AE4" t="n">
-        <v>292361.0096496079</v>
+        <v>372105.8143023641</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.874295253578238e-06</v>
+        <v>3.348291687672626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.64930555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>264458.4852199897</v>
+        <v>336592.5576391362</v>
       </c>
     </row>
   </sheetData>
